--- a/xlsx/country_comparison/solidarity_support_climate_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_climate_mean.xlsx
@@ -64,12 +64,12 @@
 vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
     <t xml:space="preserve">International levy on shipping carbon emissions,
 returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on aviation carbon emissions, raising
@@ -454,7 +454,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.539519237088218</v>
+        <v>0.53880897005617</v>
       </c>
       <c r="C2" t="n">
         <v>0.622717294167845</v>
@@ -481,16 +481,16 @@
         <v>0.565384609904008</v>
       </c>
       <c r="K2" t="n">
-        <v>0.381605380758696</v>
+        <v>0.381834133583139</v>
       </c>
       <c r="L2" t="n">
-        <v>0.62733909707771</v>
+        <v>0.622904912769984</v>
       </c>
       <c r="M2" t="n">
         <v>0.834571283823028</v>
       </c>
       <c r="N2" t="n">
-        <v>0.455152583155877</v>
+        <v>0.455071120277596</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.458531133781306</v>
+        <v>0.457646793262474</v>
       </c>
       <c r="C3" t="n">
         <v>0.487373574197681</v>
@@ -525,16 +525,16 @@
         <v>0.354161380059063</v>
       </c>
       <c r="K3" t="n">
-        <v>0.278742514761965</v>
+        <v>0.278997853200917</v>
       </c>
       <c r="L3" t="n">
-        <v>0.701142356844379</v>
+        <v>0.695125891930721</v>
       </c>
       <c r="M3" t="n">
         <v>0.958227224438065</v>
       </c>
       <c r="N3" t="n">
-        <v>0.36449483386235</v>
+        <v>0.364623737617183</v>
       </c>
     </row>
     <row r="4">
@@ -542,43 +542,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.31841123807984</v>
+        <v>0.320103458109216</v>
       </c>
       <c r="C4" t="n">
-        <v>0.420490345740477</v>
+        <v>0.385513480941771</v>
       </c>
       <c r="D4" t="n">
-        <v>0.536683844982711</v>
+        <v>0.282328612443547</v>
       </c>
       <c r="E4" t="n">
-        <v>0.307558555086059</v>
+        <v>0.386595005935138</v>
       </c>
       <c r="F4" t="n">
-        <v>0.574957116219404</v>
+        <v>0.564560966610589</v>
       </c>
       <c r="G4" t="n">
-        <v>0.119901621697207</v>
+        <v>0.195137593917434</v>
       </c>
       <c r="H4" t="n">
-        <v>0.465856915676184</v>
+        <v>0.547858472580792</v>
       </c>
       <c r="I4" t="n">
-        <v>0.441669722225902</v>
+        <v>0.355483061828207</v>
       </c>
       <c r="J4" t="n">
-        <v>0.404635709261012</v>
+        <v>0.268682896761476</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0563084086354476</v>
+        <v>0.0605446304055215</v>
       </c>
       <c r="L4" t="n">
-        <v>0.369383378979967</v>
+        <v>0.697267347192898</v>
       </c>
       <c r="M4" t="n">
-        <v>0.660342805051329</v>
+        <v>0.776081506237869</v>
       </c>
       <c r="N4" t="n">
-        <v>0.262635071272456</v>
+        <v>0.168711740455824</v>
       </c>
     </row>
     <row r="5">
@@ -586,43 +586,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.317414800687998</v>
+        <v>0.31788661467437</v>
       </c>
       <c r="C5" t="n">
-        <v>0.385513480941771</v>
+        <v>0.420490345740477</v>
       </c>
       <c r="D5" t="n">
-        <v>0.282328612443547</v>
+        <v>0.536683844982711</v>
       </c>
       <c r="E5" t="n">
-        <v>0.386595005935138</v>
+        <v>0.307558555086059</v>
       </c>
       <c r="F5" t="n">
-        <v>0.564560966610589</v>
+        <v>0.574957116219404</v>
       </c>
       <c r="G5" t="n">
-        <v>0.195137593917434</v>
+        <v>0.119901621697207</v>
       </c>
       <c r="H5" t="n">
-        <v>0.547858472580792</v>
+        <v>0.465856915676184</v>
       </c>
       <c r="I5" t="n">
-        <v>0.355483061828207</v>
+        <v>0.441669722225902</v>
       </c>
       <c r="J5" t="n">
-        <v>0.268682896761476</v>
+        <v>0.404635709261012</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0603193870621699</v>
+        <v>0.0564462476899513</v>
       </c>
       <c r="L5" t="n">
-        <v>0.673446690200645</v>
+        <v>0.36590464407975</v>
       </c>
       <c r="M5" t="n">
-        <v>0.776081506237869</v>
+        <v>0.660342805051329</v>
       </c>
       <c r="N5" t="n">
-        <v>0.168821177132451</v>
+        <v>0.262398605005224</v>
       </c>
     </row>
     <row r="6">
@@ -630,10 +630,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0133623665043539</v>
+        <v>0.00973878914166017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0839217421719148</v>
+        <v>0.0839217421719147</v>
       </c>
       <c r="D6" t="n">
         <v>0.187669811959432</v>
@@ -657,16 +657,16 @@
         <v>0.010117471105896</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0960462558585693</v>
+        <v>-0.0959998598824107</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00385878470855154</v>
+        <v>-0.0180680286245144</v>
       </c>
       <c r="M6" t="n">
         <v>0.414946008655522</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.046314396837461</v>
+        <v>-0.0465102463465209</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_climate_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_climate_mean.xlsx
@@ -454,7 +454,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.53880897005617</v>
+        <v>0.538331317889367</v>
       </c>
       <c r="C2" t="n">
         <v>0.622717294167845</v>
@@ -484,7 +484,7 @@
         <v>0.381834133583139</v>
       </c>
       <c r="L2" t="n">
-        <v>0.622904912769984</v>
+        <v>0.62055734756295</v>
       </c>
       <c r="M2" t="n">
         <v>0.834571283823028</v>
@@ -498,7 +498,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.457646793262474</v>
+        <v>0.458387576622686</v>
       </c>
       <c r="C3" t="n">
         <v>0.487373574197681</v>
@@ -528,7 +528,7 @@
         <v>0.278997853200917</v>
       </c>
       <c r="L3" t="n">
-        <v>0.695125891930721</v>
+        <v>0.703121504911223</v>
       </c>
       <c r="M3" t="n">
         <v>0.958227224438065</v>
@@ -542,7 +542,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.320103458109216</v>
+        <v>0.320249242216214</v>
       </c>
       <c r="C4" t="n">
         <v>0.385513480941771</v>
@@ -572,7 +572,7 @@
         <v>0.0605446304055215</v>
       </c>
       <c r="L4" t="n">
-        <v>0.697267347192898</v>
+        <v>0.699570192636595</v>
       </c>
       <c r="M4" t="n">
         <v>0.776081506237869</v>
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.31788661467437</v>
+        <v>0.319190975705175</v>
       </c>
       <c r="C5" t="n">
         <v>0.420490345740477</v>
@@ -616,7 +616,7 @@
         <v>0.0564462476899513</v>
       </c>
       <c r="L5" t="n">
-        <v>0.36590464407975</v>
+        <v>0.377306157800078</v>
       </c>
       <c r="M5" t="n">
         <v>0.660342805051329</v>
@@ -630,10 +630,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00973878914166017</v>
+        <v>0.010244201702362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0839217421719147</v>
+        <v>0.0839217421719148</v>
       </c>
       <c r="D6" t="n">
         <v>0.187669811959432</v>
@@ -660,7 +660,7 @@
         <v>-0.0959998598824107</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0180680286245144</v>
+        <v>-0.0145192493656787</v>
       </c>
       <c r="M6" t="n">
         <v>0.414946008655522</v>
